--- a/tine20/Calendar/Export/templates/calendar_resource_overview.xlsx
+++ b/tine20/Calendar/Export/templates/calendar_resource_overview.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9100" yWindow="3540" windowWidth="20620" windowHeight="13220" tabRatio="500"/>
+    <workbookView xWindow="3240" yWindow="2420" windowWidth="20620" windowHeight="13220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>${twig:translate('Maximum number of attendee')}</t>
   </si>
   <si>
-    <t>${twig:record.max_number_of_attendee}</t>
-  </si>
-  <si>
     <t>${twig:translate('Status')}</t>
   </si>
   <si>
@@ -84,38 +81,19 @@
   </si>
   <si>
     <t xml:space="preserve"> ${twig:translate('Exporttime')} ${twig:export.timestamp.format('Y-m-dH:i:s')} </t>
+  </si>
+  <si>
+    <t>${twig:record.max_number_of_people}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri (Textkörper)"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF4472C4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -141,6 +119,38 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4472C4"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -183,29 +193,39 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -605,113 +625,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" customWidth="1"/>
-    <col min="7" max="7" width="28.5" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="25.5" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="28.5" style="7" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5" style="7" hidden="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
-    <row r="3" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="5" spans="1:10" s="5" customFormat="1" ht="52" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="39" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" ht="76" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.51" footer="0.51"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>

--- a/tine20/Calendar/Export/templates/calendar_resource_overview.xlsx
+++ b/tine20/Calendar/Export/templates/calendar_resource_overview.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="2420" windowWidth="20620" windowHeight="13220" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21880" windowHeight="15720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>${twig:branding.title}</t>
   </si>
@@ -38,9 +38,6 @@
     <t>${twig:translate('Name')}</t>
   </si>
   <si>
-    <t>${twig:translate('Description')}</t>
-  </si>
-  <si>
     <t>${twig:translate('Email')}</t>
   </si>
   <si>
@@ -65,18 +62,6 @@
     <t>${twig:translate('Busy Type')}</t>
   </si>
   <si>
-    <t>${twig:record.busy_type}</t>
-  </si>
-  <si>
-    <t>${twig:translate('Location')}</t>
-  </si>
-  <si>
-    <t>${twig:record.location.getTitle()}</t>
-  </si>
-  <si>
-    <t>${twig:record.description}${/ROW}</t>
-  </si>
-  <si>
     <t>${twig:translate('Account')} ${twig:export.account.accountDisplayName}</t>
   </si>
   <si>
@@ -84,6 +69,9 @@
   </si>
   <si>
     <t>${twig:record.max_number_of_people}</t>
+  </si>
+  <si>
+    <t>${twig:record.busy_type}${/ROW}</t>
   </si>
 </sst>
 </file>
@@ -623,9 +611,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -635,12 +625,10 @@
     <col min="4" max="4" width="14.1640625" style="7" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" style="7" customWidth="1"/>
     <col min="6" max="6" width="30.33203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="28.5" style="7" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="25.5" style="7" hidden="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="7"/>
+    <col min="7" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,9 +637,9 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -660,12 +648,10 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -674,59 +660,45 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
     </row>
-    <row r="5" spans="1:10" s="5" customFormat="1" ht="52" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="52" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" ht="39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
